--- a/biology/Botanique/Desmodium_hirtum/Desmodium_hirtum.xlsx
+++ b/biology/Botanique/Desmodium_hirtum/Desmodium_hirtum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Desmodium hirtum est une espèce de plantes de la famille des Fabaceae et du genre Desmodium, présente dans de nombreux pays d'Afrique tropicale[2]. On lui connaît diverses utilisations en médecine traditionnelle[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Desmodium hirtum est une espèce de plantes de la famille des Fabaceae et du genre Desmodium, présente dans de nombreux pays d'Afrique tropicale. On lui connaît diverses utilisations en médecine traditionnelle.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (16 juin 2020)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (16 juin 2020) :
 variété Desmodium hirtum var. hirtum
-Selon The Plant List            (16 juin 2020)[1] :
+Selon The Plant List            (16 juin 2020) :
 variété Desmodium hirtum var. delicatulum (A. Rich.) B.G. Schub.
-Selon Tropicos                                           (16 juin 2020)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (16 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 variété Desmodium hirtum var. delicatulum (A. Rich.) B.G. Schub.
 variété Desmodium hirtum var. hirtum</t>
         </is>
